--- a/Marketing/umich.roomme.xlsx
+++ b/Marketing/umich.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ye13589</t>
+          <t>ashleydyan3</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>alien_the_wrestler_2.0</t>
+          <t>riyanegi.51</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>homeswithzara</t>
+          <t>jon.aboolu</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>maya_hervey</t>
+          <t>daniikasper</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>leahgrothh</t>
+          <t>lexi0181</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rowanc019</t>
+          <t>bradleycalkins_</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>juliafowell</t>
+          <t>dylu_1</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dominik_bodz</t>
+          <t>h.wells2004</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>23bryang</t>
+          <t>dylarosie17</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mishakasher</t>
+          <t>knkandhari</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>k.12o1</t>
+          <t>d3.viid</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>user49292782715</t>
+          <t>suegoblue</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>felipe.garcia.7</t>
+          <t>_keagen_08_</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>anikanand_</t>
+          <t>bruce.anthony_</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>justinee.kyi</t>
+          <t>kayleesyvone</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ashcollier</t>
+          <t>zachsantos592</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rahimiheidi</t>
+          <t>bitesizephysics</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>brookeccano</t>
+          <t>grin.umich</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>becccaliu</t>
+          <t>militza_algredo.huerta</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>anthony_colavecchio</t>
+          <t>danny.vega7</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,2407 +648,2407 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vmehrotr</t>
+          <t>bojaj.b</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>gab_graciart</t>
+          <t>zackschtein</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>blakenazar</t>
+          <t>otmaneelwardani</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>samjiang47</t>
+          <t>minuett_11</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>meghanpark00</t>
+          <t>dogab_kurt</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>tedsherman8</t>
+          <t>sush1223</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lune_mth</t>
+          <t>oluwakayode696_</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>_matthewhk</t>
+          <t>lavenderandhydrangeas</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>manroopnijjar</t>
+          <t>olgamontserrat</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>juliahuth9</t>
+          <t>aristide.jg</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hyln450</t>
+          <t>aarav_shah_</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aarav_shah_</t>
+          <t>dawson_sharpley12</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>loganlae2</t>
+          <t>lilyyfishman</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>brettchampagne2</t>
+          <t>_lindseygleason</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>f._rolph_maza</t>
+          <t>bradmcnew_</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>nikhibhaskar04</t>
+          <t>lucacive9</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>delana25912</t>
+          <t>office_honteegold</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>auntie_sher</t>
+          <t>kashcarmello</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>stevehen_fx222</t>
+          <t>annadiorio</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>aravxrajesh</t>
+          <t>maliksaadabbas</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>chocolate_chip_adventures</t>
+          <t>woffl_s</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>declandowd</t>
+          <t>sravika_chirla</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>parker.boyden</t>
+          <t>humbled.alex</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>samantha_chklovskii</t>
+          <t>cielokenneth</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ethancvong</t>
+          <t>kimonsplash</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ibbybajwa</t>
+          <t>zhangwei66</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>jordanplocker_</t>
+          <t>nickmon124</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>billyswifejoel</t>
+          <t>lopeze322019</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ellykoopersmith</t>
+          <t>stacysarner</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>bessy_rishel</t>
+          <t>_jackieholt</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>melaniejana94</t>
+          <t>kum._.sub</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>blllake29</t>
+          <t>ill.flyhigh</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ethanshemtov</t>
+          <t>samjiang47</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>parkerjn07</t>
+          <t>ethanfahrbach7</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>malinamaxham</t>
+          <t>dannysull21</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>gracyn.beck</t>
+          <t>miasegoviaa</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>annadiorio</t>
+          <t>rahimiheidi</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>alang0223</t>
+          <t>cole.arnedt</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>stp3758</t>
+          <t>emmapopoff</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>modern_interiordecor</t>
+          <t>lareinamansv</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>arjun_abhyankar</t>
+          <t>alden_delgado9</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>oluwakayode696_</t>
+          <t>areliz_tamayo</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>tonilarocco</t>
+          <t>jkriversz</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tshaf56</t>
+          <t>skzoll</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>leslie.gp3</t>
+          <t>mr_garine</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>jose_gito</t>
+          <t>vtt_rios</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>nataliana.jones_</t>
+          <t>im.kevin.m</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>sarah.salvina</t>
+          <t>stick1278</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>aaronwalenciak</t>
+          <t>jordanplocker_</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>papermarkup</t>
+          <t>anita.chandra.puri</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>layth_kakish</t>
+          <t>maevemori</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>dage_s_tan1</t>
+          <t>mark.g.yall</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>brinstondsouza</t>
+          <t>johniel_27</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>pi.anogirl</t>
+          <t>sofia_25626</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ash_berry10</t>
+          <t>alex._xzv</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>camerondavis504</t>
+          <t>furrychicken23565</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>dihaddads</t>
+          <t>omer.f.erdem</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>clarayalamanchili</t>
+          <t>ran.2fast</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sravika_chirla</t>
+          <t>w__natalie</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>kendallmmargolis</t>
+          <t>bennyfacundo_</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>joshmckenna370</t>
+          <t>justinee.kyi</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>bradmcnew_</t>
+          <t>papermarkup</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>_keagen_08_</t>
+          <t>h_traf</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>alex_._fx.___</t>
+          <t>dylankimdk</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>miasegoviaa</t>
+          <t>bodega_bros</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>reagancarlstrom</t>
+          <t>rsaumich</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>rcbball05</t>
+          <t>gaddisgrant</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>astintorrey</t>
+          <t>ejm_0506</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ranya0270</t>
+          <t>kelsie_modder</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>jwhite928</t>
+          <t>yunhan_.f</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>father_arabe</t>
+          <t>pabloestudios</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>riyanegi.51</t>
+          <t>jayspazzn3x</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>emmapopoff</t>
+          <t>lily.stalewski</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>arwenkataoka</t>
+          <t>pinnjirachaya</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>daniikasper</t>
+          <t>kurzvybz</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>maya_cherry21</t>
+          <t>who.isrob</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>anna.k.zimmerman</t>
+          <t>jaclyndierkes_</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>04sa.emi</t>
+          <t>adri.seage</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>seph0rabran</t>
+          <t>malindabrunk</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>patrick.foley11</t>
+          <t>jose_gito</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>eliza.rozeboom</t>
+          <t>juliahousey</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>j.fozzzsta</t>
+          <t>adi_patel11</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>clarajthomas</t>
+          <t>penonk_m</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>indrxw</t>
+          <t>eliza.rozeboom</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>strikergurl_</t>
+          <t>lisaariv1172</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>gabriel.maglione</t>
+          <t>amyherman2002</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>brichtwgrl</t>
+          <t>theren.nash</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>nina.gernhardt</t>
+          <t>rgomez.j</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>diego.collecting</t>
+          <t>shankha.mitra</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>quinn_reese3636</t>
+          <t>stephanie._.zhao</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>youssel.kriko</t>
+          <t>camerondavis504</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>lmintzer13</t>
+          <t>gwyn_86_albert</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>milolyndo</t>
+          <t>sop.hiacaroll</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>megann.brucee</t>
+          <t>brendanlafrenier</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>greg.hurst05</t>
+          <t>dpham_4</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>jchaps.05</t>
+          <t>naross0_0</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ethanfahrbach7</t>
+          <t>nikhibhaskar04</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1jackdonohoe</t>
+          <t>ash_berry10</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>lottiespamz1</t>
+          <t>layth_kakish</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>dagib_oi</t>
+          <t>maddyschong</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>laura227pa</t>
+          <t>pitaa.das</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>marihegenberger</t>
+          <t>gremlin_nate</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>uzmaabdullah1</t>
+          <t>jack_riordan13</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>patience._sims</t>
+          <t>sophia.wang2</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>h.wells2004</t>
+          <t>honglact</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>kajsorens</t>
+          <t>journeymelgar</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>nwolfe41</t>
+          <t>victordaman2252</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>oliviaeby_</t>
+          <t>karthikk.xv</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>lily.stalewski</t>
+          <t>gaty_sean30</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>lavanyatooma</t>
+          <t>rohanssaxena</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>mikefrazier173</t>
+          <t>nwolfe41</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>brianmagas</t>
+          <t>turkeytreehouse</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>rizzo2360joey</t>
+          <t>imnotboxy</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>randlekado</t>
+          <t>_.drew.brown._</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>helenacollectionwigs</t>
+          <t>dave_johnson._029</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>jefford_shau</t>
+          <t>maya_cherry21</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>emmanuel19385</t>
+          <t>_dhruvpatel25</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jjpooter</t>
+          <t>jlb5001</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>saraajulietaa</t>
+          <t>rowanc019</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>_mya.destiny_</t>
+          <t>gruyerr7</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>dixon.chung25</t>
+          <t>roberthim2023</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>shreya.bhattt</t>
+          <t>_uzeyir.i_</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>kchungshin</t>
+          <t>realspallav</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>rachael.aanderson</t>
+          <t>khatri_achal</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>rgomez.j</t>
+          <t>izabella.ld</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>rickchen0630</t>
+          <t>hyln450</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>im.kevin.m</t>
+          <t>tj_gufffey</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>alan_929l</t>
+          <t>emmanuel19385</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>abby.ladieu</t>
+          <t>tonilarocco</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>krystof_baca</t>
+          <t>hopesiwek</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>sarataki2.0</t>
+          <t>flowbatifhewasinohio</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>sofia_25626</t>
+          <t>jenxlii</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>john.m.fein</t>
+          <t>porshia_w</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>karishma_s123</t>
+          <t>ddanielwang</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>w__natalie</t>
+          <t>sid.d621</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>cherryblossoms100</t>
+          <t>bochenoweth</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>laurel_k_thompson_</t>
+          <t>bvoto</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>izabella.ld</t>
+          <t>lmintzer13</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ella.n.k</t>
+          <t>banks_of_america_</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>sahithinalamothu_</t>
+          <t>harper_blake_horst</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>_lindseygleason</t>
+          <t>mathew_zheng</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>abby.carome</t>
+          <t>nery.dani</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>zayden_boonstra</t>
+          <t>leoncem04</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>jkriversz</t>
+          <t>itz_anelisajw</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>frank.dlt</t>
+          <t>zayden_boonstra</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>wearecareyaya</t>
+          <t>moniqquex_</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>arno.ldsamuel</t>
+          <t>ye13589</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>alyssakelly4269</t>
+          <t>brookyeung</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>benpritch00</t>
+          <t>jadensheng2</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ddanielwang</t>
+          <t>debor_ahduran</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ashley201173</t>
+          <t>_liyahhhhhhh_17</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>okoook0104</t>
+          <t>analeise.s</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>vedachil</t>
+          <t>si_schwa1</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>bradleycalkins_</t>
+          <t>kelsielbackus</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>dana.dughbajj</t>
+          <t>gracecox08</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>diego_maldo.pr</t>
+          <t>no.jxm</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>tyler_aldave</t>
+          <t>shadmanmiah</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>jalen.hoffman</t>
+          <t>kodamitsuhashi</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>spencelowery</t>
+          <t>alex_istock</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>sherylholzr</t>
+          <t>astintorrey</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>gavinasten</t>
+          <t>dgiganti8</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>jackson.park05</t>
+          <t>tpanja17</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>mark.g.yall</t>
+          <t>carolyeungg</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>itzz.kav.xx</t>
+          <t>justintran06</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>gabby.miller00</t>
+          <t>livtruswell_</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>omer.f.erdem</t>
+          <t>laurensypark</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>moanawery</t>
+          <t>ryanloychik27</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>shmarvin1</t>
+          <t>anto_niyar</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>suegoblue</t>
+          <t>phb11677</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>isabelstraus</t>
+          <t>clarajthomas</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>gularenzo</t>
+          <t>kimtungtungi</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>dogsrcool9162</t>
+          <t>laurien_23</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>_nickjjohnson_</t>
+          <t>hannahkatzke</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>sujay.maddireddy</t>
+          <t>minwerner4</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>marioo_q128</t>
+          <t>ryan.oshaug</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>jschreiber923</t>
+          <t>_maximilianthompson</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ryan.whelden</t>
+          <t>brady_smith777</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>bingebungalow</t>
+          <t>andy1iu</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ccchuckchung</t>
+          <t>legacyannarbor</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>miinjeeyii</t>
+          <t>mitchintex</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>umich.youngdisciples</t>
+          <t>vmehrotr</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>elenagsolomon</t>
+          <t>emzhzj</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ernie_sleeping</t>
+          <t>amywebster._</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>slackerpitt</t>
+          <t>tessa.florida</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>amel.iawa</t>
+          <t>ezra_mazza</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>makethefuturebetter</t>
+          <t>brinstondsouza</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ezra_mazza</t>
+          <t>silaslovesbbq</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>tasha_bvv</t>
+          <t>come1737</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>jgipe35</t>
+          <t>elisekemp</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>stchuck313</t>
+          <t>shyaman9</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>tejp05</t>
+          <t>aravxrajesh</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>tabaco265</t>
+          <t>_avery.allen_</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>sara.berz</t>
+          <t>manroopnijjar</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>tazz_sy</t>
+          <t>mikefrazier173</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ivyreseacher_cardiff</t>
+          <t>parkerjn07</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>dogab_kurt</t>
+          <t>alexg21go</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>sophialiaohendricks</t>
+          <t>chrissturniololover1</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>goodlife17708</t>
+          <t>best_cheap_cars</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>adi_patel11</t>
+          <t>anaamsingh</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>jadenakhtarzad</t>
+          <t>eric._.wu</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>leannsullivan33</t>
+          <t>a2._.cookies</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>emmald7154</t>
+          <t>abraham.mansuroglu</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>drip.mob416</t>
+          <t>dayna.niah</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>n_lesny</t>
+          <t>yampiolo</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>pvazb</t>
+          <t>tedsherman8</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>gianajung_</t>
+          <t>_snigdhakondur</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>vankampen.malea</t>
+          <t>laurenhuizdos</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>colombian220</t>
+          <t>yfu0508</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>h_traf</t>
+          <t>23bryang</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>vibewith.ada</t>
+          <t>shyambatchu_</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ur.favblondy</t>
+          <t>egeng55</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>tanay_pingle27</t>
+          <t>notmeoryou545</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>dreyvonsimmons</t>
+          <t>daniel_rombaut_</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>a.sorensen3</t>
+          <t>annelise_letsgo</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>jack_gimm</t>
+          <t>tabaco265</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>niisshhaa.aa</t>
+          <t>curryjackson1</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>annmargretmanley1965</t>
+          <t>jeremy_mckinlay001</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>tonya_hensley_sullivan</t>
+          <t>jefford_shau</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>gaty_sean30</t>
+          <t>konrad.d1</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>matthew_samrah</t>
+          <t>tin_cao8</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>nick.sacasa</t>
+          <t>phil1406troycolts</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>zzaver7</t>
+          <t>christidiggs</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>mrdiegoac</t>
+          <t>ali.salazar11</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>suraj.pangal</t>
+          <t>saul.ramirezzz</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>chloe_perry2</t>
+          <t>sian.loughran</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>sarahskim9</t>
+          <t>fadiatuom</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>alexg21go</t>
+          <t>talyau_</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>kalebkm39</t>
+          <t>kareensam27</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>micaylahorwitz</t>
+          <t>payne.julia1</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>drew_asherman_</t>
+          <t>sahebatennis</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>lucasmateof</t>
+          <t>mitchb_11</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>freshwaterscents</t>
+          <t>mi_lsamp</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>134rman</t>
+          <t>509_nico</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>hsinyu0701</t>
+          <t>eddiee.cim</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>cgisumich</t>
+          <t>lil_codette</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>nick.x.g</t>
+          <t>greenteawu23</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ryanpinsker</t>
+          <t>rickchen0630</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>krahimi9</t>
+          <t>nukety1</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>lindamaria1115</t>
+          <t>mehekguuptaa</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>sahebatennis</t>
+          <t>ecograd23</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>lilakoury</t>
+          <t>divya.rao.04</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>josueanyosa</t>
+          <t>marrisjoe69</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>sahas_nandi</t>
+          <t>teddybfits</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>sophia.wang2</t>
+          <t>corascot5</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>camelliaaa_aaaa</t>
+          <t>rizzo2360joey</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>simranisbrown</t>
+          <t>isabellaacarlino</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ryanbinge_</t>
+          <t>bellakarafilis8</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>konrad.d1</t>
+          <t>kdjsultan</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>indyjones6</t>
+          <t>amelia_bell07</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>fadiatuom</t>
+          <t>celinacookson</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>literally_an_ice_cube</t>
+          <t>jenoc426</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>owen_finlay5</t>
+          <t>randallicious</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>saniyahnino</t>
+          <t>yamii.r_10</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>jace.vanderweide</t>
+          <t>helloitwillham</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>lareinamansv</t>
+          <t>adorablero</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>zoefulin_zb</t>
+          <t>reagancarlstrom</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>moniqquex_</t>
+          <t>richardmarkgreen</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>_snigdhakondur</t>
+          <t>eli44ile</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>thorn_hollow_vintage</t>
+          <t>masonjohnson229</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>elisecitraro</t>
+          <t>nathan_sinawi</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>fcrbsies</t>
+          <t>dj_delgadoooo</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>maddiejoquico</t>
+          <t>qieschor</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>knkandhari</t>
+          <t>lucabuca10</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>lucy._miller</t>
+          <t>_hannahdeng_</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>jacobp_m</t>
+          <t>becccaliu</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>louie_beardell</t>
+          <t>mbabes143_</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>iamtaag</t>
+          <t>j.tylerwhite</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>danielmoctezumadominguez</t>
+          <t>cisleyt</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>emzhzj</t>
+          <t>strikergurl_</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>carolyeungg</t>
+          <t>margitcfried</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>garylucywillams</t>
+          <t>lindseyhamama</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>skzoll</t>
+          <t>cari.martinezz12</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>laurenbergman1</t>
+          <t>coswalt_</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>kiwidurbin42</t>
+          <t>robyn_alwani</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>lil_codette</t>
+          <t>jake.sheinberg</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>kareensam27</t>
+          <t>tejp05</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>reddy_mom</t>
+          <t>kyliesandmire</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>emmamaynard2</t>
+          <t>jason.lxpez</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ran.2fast</t>
+          <t>martz.josselin</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ashleykronenberg</t>
+          <t>manasvipatel_23</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>dannysull21</t>
+          <t>braden.one</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>marcelo274silva</t>
+          <t>aaron__weinbach</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>jlb5001</t>
+          <t>slackerpsu</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>phb11677</t>
+          <t>ragavb21</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>payne.julia1</t>
+          <t>jennifermstringfellow</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>who.isrob</t>
+          <t>jacksonbeery24</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>jack_homa_</t>
+          <t>anikanand_</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>lea.hsu</t>
+          <t>chocolate_chip_adventures</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>chucky_1609</t>
+          <t>emmaarnhols</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>coswalt_</t>
+          <t>austyn.ruchgyy</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>best_cheap_cars</t>
+          <t>riley.spalding17</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>linz.ang</t>
+          <t>molly_traughber</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>wiiniy2005</t>
+          <t>eric_wang.23</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>theosayad</t>
+          <t>nick.sacasa</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>molliemeadorr</t>
+          <t>freshwaterscents</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>hadleyhart</t>
+          <t>chloe_perry2</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>xtine_176</t>
+          <t>jsing29</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>c.kty_</t>
+          <t>crystall.wuu</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>jackbacarrra</t>
+          <t>aathrey_ramesh</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>graceecrook</t>
+          <t>extra_power2201</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>michigan19375</t>
+          <t>ana_laurapt</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>kloe.anderson</t>
+          <t>carmelsmithh</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>tessa.florida</t>
+          <t>landonthefish</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>pinnjirachaya</t>
+          <t>zzaver7</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ealozano.07</t>
+          <t>vrenimarie</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>sid.d621</t>
+          <t>serenmetz</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>kelsielbackus</t>
+          <t>daniel_sanhacs</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>crossfield.nick</t>
+          <t>blllake29</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>lexi0181</t>
+          <t>samuelepalmerii</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>maevemori</t>
+          <t>noelandfinn</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>bodega_bros</t>
+          <t>isabelstraus</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>valeria.paola.528</t>
+          <t>orennochimowski</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>brockshively</t>
+          <t>lucy._miller</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>stephavitt</t>
+          <t>ajupiter05</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>sophhhh.paleeee</t>
+          <t>connor.shard</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>brendanlafrenier</t>
+          <t>tami_evans</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>guillermo_headen</t>
+          <t>patience._sims</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>laurien_23</t>
+          <t>k.12o1</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>_jackieholt</t>
+          <t>sara.berz</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>k8rockefeller__</t>
+          <t>stchuck313</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>michaelduong314</t>
+          <t>matthew_samrah</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>carissa.mayah</t>
+          <t>ammar0bt</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>yunhan_.f</t>
+          <t>gracenike472</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>michealdennis53</t>
+          <t>jrodz0478</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>sjn110</t>
+          <t>goodlife17708</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>spencer.depaolo</t>
+          <t>goat_hoey</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>lucas.tafara</t>
+          <t>ashley201173</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>rado.julien</t>
+          <t>oliviarahhal</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ryanloychik27</t>
+          <t>cata.khoury</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>analucia_hurtado_</t>
+          <t>ccchuckchung</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>_jacktemple</t>
+          <t>magh.ie</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ill.flyhigh</t>
+          <t>a.sorensen3</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>emma_nuel407</t>
+          <t>amogh_madireddi</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>dal_jiyu</t>
+          <t>joshsos39</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>kr.silver</t>
+          <t>alien_the_wrestler_2.0</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>deegrayson</t>
+          <t>arjun_abhyankar</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,10 +4008,4750 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
+          <t>jschreiber923</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>fcrbsies</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>samarth_rajagopal</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>jchaps.05</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>shreya.bhattt</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>drip.mob416</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>saniyahnino</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>cesarolguin10</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>mayaguacci</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>lucasmateof</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>yanalafore</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>uzmaabdullah1</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>alyssakelly4269</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>erentahtaci04</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>slackerpitt</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>king.jlaw</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>mathassitance</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>owen_finlay5</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>vada_peyerk</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>willi_central</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>pranav._.boopalam</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>milolyndo</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>monicamarcelisfochtman</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>0_xvv3</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>jack_gimm</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>anaconforti_</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>liv05132</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>aryannaakelleyy</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>emma__gilmore</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>umich.youngdisciples</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>kourtnii44</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>dayanissanjurjo</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>jwhite928</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>sexiialexii</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>jack.tahoe.nv</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>herrinbox4</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>tanay_pingle27</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>daniel_chae_526</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>sophia.danak</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>wyattmason_25_</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>reagancoley</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>michaeldancea</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>luminescentbulb</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>cameronmayer7</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>courtneysolomon_</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>father_arabe</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>sweetsillysuki</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>ade_stapleton</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>lakshay.usa</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>janekrosenberg</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>diego.collecting</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>destinys_a9</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>n_lesny</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>komaromibrock</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>bsayles315</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>lpaterson58</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ealozano.07</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>drew_asherman_</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>itzzz.fatuma</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>jjpooter</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>sahas_nandi</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>hruday_pulusuganti</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>seph0rabran</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>wlehdd1_</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>matt.nho0914</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>dayanc4589</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>elisecitraro</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>machengomachengo</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>obengemmanuel631</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>meeraboyapati</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>francis114646</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>parker.boyden</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>carlyhadaway_</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>sarataki2.0</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>zara_is_zen</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>literally_an_ice_cube</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>ryan.hoehler</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>juliahuth9</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>aarushk_23</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>wuacpnts</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>mamacochirudo</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>maddiejoquico</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>ryan.tomeny</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>drozeduardo</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>simarbhatia_</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>jk.sofly</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>kay_p17</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>milmil123098</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>not_balraj_singh</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>stenniesings</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>anthony_colavecchio</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>sa_.mm09</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>hannaah.pham</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>skesa01</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
           <t>demario416</t>
         </is>
       </c>
-      <c r="B358" t="b">
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>vickyyang_16</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>zae.6k</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>emmaschardt</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>maribellaespino</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>gammill.emma</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>meghan.t_</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>jasmine.lyneha</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>shilohdunaway</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>kkikhoe</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>dc.motoyosi</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>lucalazaris7</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>alexliu800</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>jaygotback</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>molliemeadorr</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>amel.iawa</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>leleissuperior</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>cryptic.caramel</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>carlyy.grant</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>nidhi6150</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>elenagsolomon</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>x._brisa</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>micaylahorwitz</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>shelbyxholmes</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>nina.frias</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>myaanavarro</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>jbbb818322</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>t_fletch31</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>gracyn.beck</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>sandrajane6041</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>j.fozzzsta</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>ayesha_t122</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>emily.murakami_</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>mmekhijones</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>felipe.garcia.7</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>suraj.pangal</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>wiiniy2005</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>laurenbergman1</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>laurel_k_thompson_</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>_pretzelogic</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>_nickjjohnson_</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>stevehen_fx222</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>lenaaa.z</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>_candicehsu</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>alejandro.martinez27</t>
+        </is>
+      </c>
+      <c r="B496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>nick_inra</t>
+        </is>
+      </c>
+      <c r="B497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>evanh1122</t>
+        </is>
+      </c>
+      <c r="B498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>ssharei</t>
+        </is>
+      </c>
+      <c r="B499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>camelliaaa_aaaa</t>
+        </is>
+      </c>
+      <c r="B500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>john.m.fein</t>
+        </is>
+      </c>
+      <c r="B501" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>karen.samaha</t>
+        </is>
+      </c>
+      <c r="B502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>nono.hyn</t>
+        </is>
+      </c>
+      <c r="B503" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>andrelee.30712</t>
+        </is>
+      </c>
+      <c r="B504" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>ryanborkowsky</t>
+        </is>
+      </c>
+      <c r="B505" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>stickrundoubler05</t>
+        </is>
+      </c>
+      <c r="B506" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>arwenkataoka</t>
+        </is>
+      </c>
+      <c r="B507" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>hoohokie</t>
+        </is>
+      </c>
+      <c r="B508" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>yunsanghyeon386</t>
+        </is>
+      </c>
+      <c r="B509" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>manishileni</t>
+        </is>
+      </c>
+      <c r="B510" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>jack_aburger</t>
+        </is>
+      </c>
+      <c r="B511" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>matheny226</t>
+        </is>
+      </c>
+      <c r="B512" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>nicolerodri_3</t>
+        </is>
+      </c>
+      <c r="B513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>adam_ngudin</t>
+        </is>
+      </c>
+      <c r="B514" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>lottiespamz1</t>
+        </is>
+      </c>
+      <c r="B515" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>jamesbivona_</t>
+        </is>
+      </c>
+      <c r="B516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>dage_s_tan1</t>
+        </is>
+      </c>
+      <c r="B517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>gaudlap.thomas</t>
+        </is>
+      </c>
+      <c r="B518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>alex.with.wavy.chips</t>
+        </is>
+      </c>
+      <c r="B519" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>mindyshapirogura</t>
+        </is>
+      </c>
+      <c r="B520" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>samantha_chklovskii</t>
+        </is>
+      </c>
+      <c r="B521" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>osorio_edwiin</t>
+        </is>
+      </c>
+      <c r="B522" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>colombian220</t>
+        </is>
+      </c>
+      <c r="B523" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>cameron_saylor20</t>
+        </is>
+      </c>
+      <c r="B524" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>annmargretmanley1965</t>
+        </is>
+      </c>
+      <c r="B525" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>jpramos115</t>
+        </is>
+      </c>
+      <c r="B526" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>joshkasner1</t>
+        </is>
+      </c>
+      <c r="B527" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>maddiemadgh</t>
+        </is>
+      </c>
+      <c r="B528" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>clara.chitty</t>
+        </is>
+      </c>
+      <c r="B529" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>megann.brucee</t>
+        </is>
+      </c>
+      <c r="B530" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>dawn_jula</t>
+        </is>
+      </c>
+      <c r="B531" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>benpritch00</t>
+        </is>
+      </c>
+      <c r="B532" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>gularenzo</t>
+        </is>
+      </c>
+      <c r="B533" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>leannsullivan33</t>
+        </is>
+      </c>
+      <c r="B534" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>nina.gernhardt</t>
+        </is>
+      </c>
+      <c r="B535" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>hoahmad198</t>
+        </is>
+      </c>
+      <c r="B536" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>marihegenberger</t>
+        </is>
+      </c>
+      <c r="B537" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>clarayalamanchili</t>
+        </is>
+      </c>
+      <c r="B538" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>miinjeeyii</t>
+        </is>
+      </c>
+      <c r="B539" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>selayerturk</t>
+        </is>
+      </c>
+      <c r="B540" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>noramarden</t>
+        </is>
+      </c>
+      <c r="B541" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>idk123990123</t>
+        </is>
+      </c>
+      <c r="B542" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>youheniu</t>
+        </is>
+      </c>
+      <c r="B543" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>undead.khatab</t>
+        </is>
+      </c>
+      <c r="B544" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>lune_mth</t>
+        </is>
+      </c>
+      <c r="B545" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>ryan.matheny3</t>
+        </is>
+      </c>
+      <c r="B546" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>tanukhanna76</t>
+        </is>
+      </c>
+      <c r="B547" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>zengoosebump</t>
+        </is>
+      </c>
+      <c r="B548" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>ellaa.bosman</t>
+        </is>
+      </c>
+      <c r="B549" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>gianajung_</t>
+        </is>
+      </c>
+      <c r="B550" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>dagib_oi</t>
+        </is>
+      </c>
+      <c r="B551" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>romano2551</t>
+        </is>
+      </c>
+      <c r="B552" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>mishakasher</t>
+        </is>
+      </c>
+      <c r="B553" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>clintblack0076546</t>
+        </is>
+      </c>
+      <c r="B554" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>liamhenning77</t>
+        </is>
+      </c>
+      <c r="B555" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>lily.pine</t>
+        </is>
+      </c>
+      <c r="B556" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>audrey_loves_stories</t>
+        </is>
+      </c>
+      <c r="B557" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>jalen.hoffman</t>
+        </is>
+      </c>
+      <c r="B558" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>nxkkq</t>
+        </is>
+      </c>
+      <c r="B559" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>iamtaag</t>
+        </is>
+      </c>
+      <c r="B560" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>shwny_boy</t>
+        </is>
+      </c>
+      <c r="B561" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>lea.hsu</t>
+        </is>
+      </c>
+      <c r="B562" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>zizou_el011</t>
+        </is>
+      </c>
+      <c r="B563" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>connor_bigc</t>
+        </is>
+      </c>
+      <c r="B564" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>makedust</t>
+        </is>
+      </c>
+      <c r="B565" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>mag1c_cam</t>
+        </is>
+      </c>
+      <c r="B566" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>gabby.miller00</t>
+        </is>
+      </c>
+      <c r="B567" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>cosmic_path21</t>
+        </is>
+      </c>
+      <c r="B568" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>crescent.businge</t>
+        </is>
+      </c>
+      <c r="B569" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>guillermo_headen</t>
+        </is>
+      </c>
+      <c r="B570" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>jtcali2atl</t>
+        </is>
+      </c>
+      <c r="B571" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>kloe.anderson</t>
+        </is>
+      </c>
+      <c r="B572" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>ryanbinge_</t>
+        </is>
+      </c>
+      <c r="B573" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>de.nise1469</t>
+        </is>
+      </c>
+      <c r="B574" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>patrick.foley11</t>
+        </is>
+      </c>
+      <c r="B575" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>1luhcman</t>
+        </is>
+      </c>
+      <c r="B576" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>modern_interiordecor</t>
+        </is>
+      </c>
+      <c r="B577" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>ernie_sleeping</t>
+        </is>
+      </c>
+      <c r="B578" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>jcturner11</t>
+        </is>
+      </c>
+      <c r="B579" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>erin.xia.22</t>
+        </is>
+      </c>
+      <c r="B580" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>braydonevans__</t>
+        </is>
+      </c>
+      <c r="B581" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>ellaberenzweig</t>
+        </is>
+      </c>
+      <c r="B582" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>alex_scarsella</t>
+        </is>
+      </c>
+      <c r="B583" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>krystellelacroix55</t>
+        </is>
+      </c>
+      <c r="B584" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>hay.leeluv31</t>
+        </is>
+      </c>
+      <c r="B585" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>kayley_spencer_</t>
+        </is>
+      </c>
+      <c r="B586" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>gabyalgood</t>
+        </is>
+      </c>
+      <c r="B587" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>ethancvong</t>
+        </is>
+      </c>
+      <c r="B588" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>johnnygallgher62</t>
+        </is>
+      </c>
+      <c r="B589" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>fw_leyiah_</t>
+        </is>
+      </c>
+      <c r="B590" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>kyleyoungwalker</t>
+        </is>
+      </c>
+      <c r="B591" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>juliocasal4</t>
+        </is>
+      </c>
+      <c r="B592" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>annajerolimov</t>
+        </is>
+      </c>
+      <c r="B593" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>kennedy__rose06</t>
+        </is>
+      </c>
+      <c r="B594" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>sophialiaohendricks</t>
+        </is>
+      </c>
+      <c r="B595" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>dylankadosh</t>
+        </is>
+      </c>
+      <c r="B596" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>miarrobbins</t>
+        </is>
+      </c>
+      <c r="B597" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>lunapavagil</t>
+        </is>
+      </c>
+      <c r="B598" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>michigan19375</t>
+        </is>
+      </c>
+      <c r="B599" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>kr.silver</t>
+        </is>
+      </c>
+      <c r="B600" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>kalpesh2409</t>
+        </is>
+      </c>
+      <c r="B601" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>emmalaredo_</t>
+        </is>
+      </c>
+      <c r="B602" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>vibewith.ada</t>
+        </is>
+      </c>
+      <c r="B603" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>victoria_kennedyqiu</t>
+        </is>
+      </c>
+      <c r="B604" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>lavanyatooma</t>
+        </is>
+      </c>
+      <c r="B605" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>makethefuturebetter</t>
+        </is>
+      </c>
+      <c r="B606" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>crossfield.nick</t>
+        </is>
+      </c>
+      <c r="B607" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>mxeeras</t>
+        </is>
+      </c>
+      <c r="B608" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>erineagling</t>
+        </is>
+      </c>
+      <c r="B609" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>max.young15</t>
+        </is>
+      </c>
+      <c r="B610" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>jessicaviana555</t>
+        </is>
+      </c>
+      <c r="B611" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>pato.iturralde</t>
+        </is>
+      </c>
+      <c r="B612" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>dominic.belloli</t>
+        </is>
+      </c>
+      <c r="B613" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>xinyu_wang197</t>
+        </is>
+      </c>
+      <c r="B614" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>vbnmrev</t>
+        </is>
+      </c>
+      <c r="B615" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>faatimmaa__z</t>
+        </is>
+      </c>
+      <c r="B616" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>reshmazed</t>
+        </is>
+      </c>
+      <c r="B617" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>lily.broberg</t>
+        </is>
+      </c>
+      <c r="B618" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>dal_jiyu</t>
+        </is>
+      </c>
+      <c r="B619" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>asha.haley_</t>
+        </is>
+      </c>
+      <c r="B620" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>champagnenathan2</t>
+        </is>
+      </c>
+      <c r="B621" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>karishma_s123</t>
+        </is>
+      </c>
+      <c r="B622" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>lolmeleck</t>
+        </is>
+      </c>
+      <c r="B623" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>itsjessicaherrera</t>
+        </is>
+      </c>
+      <c r="B624" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>simranisbrown</t>
+        </is>
+      </c>
+      <c r="B625" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>ellykoopersmith</t>
+        </is>
+      </c>
+      <c r="B626" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>kblalock10</t>
+        </is>
+      </c>
+      <c r="B627" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>made_ya_look_at_this</t>
+        </is>
+      </c>
+      <c r="B628" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>sallyprissert</t>
+        </is>
+      </c>
+      <c r="B629" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>ali_sina.c</t>
+        </is>
+      </c>
+      <c r="B630" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>garylucywillams</t>
+        </is>
+      </c>
+      <c r="B631" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>a.andrea.c_7</t>
+        </is>
+      </c>
+      <c r="B632" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>ncolelee</t>
+        </is>
+      </c>
+      <c r="B633" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>charlottebrodhead</t>
+        </is>
+      </c>
+      <c r="B634" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>cherryblossoms100</t>
+        </is>
+      </c>
+      <c r="B635" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>nnnatasha77</t>
+        </is>
+      </c>
+      <c r="B636" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>adiagandhi_</t>
+        </is>
+      </c>
+      <c r="B637" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>morningstar__25</t>
+        </is>
+      </c>
+      <c r="B638" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>dana.dughbajj</t>
+        </is>
+      </c>
+      <c r="B639" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>avril._.liu</t>
+        </is>
+      </c>
+      <c r="B640" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>stephavitt</t>
+        </is>
+      </c>
+      <c r="B641" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>jackson.park05</t>
+        </is>
+      </c>
+      <c r="B642" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>sliva_marly_art</t>
+        </is>
+      </c>
+      <c r="B643" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>lace.y2168</t>
+        </is>
+      </c>
+      <c r="B644" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>m.williams12</t>
+        </is>
+      </c>
+      <c r="B645" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>jonahschloerb</t>
+        </is>
+      </c>
+      <c r="B646" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>maya_hervey</t>
+        </is>
+      </c>
+      <c r="B647" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>julius.zc</t>
+        </is>
+      </c>
+      <c r="B648" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>ashleykronenberg</t>
+        </is>
+      </c>
+      <c r="B649" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>youssel.kriko</t>
+        </is>
+      </c>
+      <c r="B650" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>shreeyansh17</t>
+        </is>
+      </c>
+      <c r="B651" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>ciennabillingsley</t>
+        </is>
+      </c>
+      <c r="B652" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>maramihanovic</t>
+        </is>
+      </c>
+      <c r="B653" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>mangojewell</t>
+        </is>
+      </c>
+      <c r="B654" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>dhiya.reddy</t>
+        </is>
+      </c>
+      <c r="B655" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>jln.yn_</t>
+        </is>
+      </c>
+      <c r="B656" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>amina_usama_16</t>
+        </is>
+      </c>
+      <c r="B657" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>brilliantacademix</t>
+        </is>
+      </c>
+      <c r="B658" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>therealest.kt</t>
+        </is>
+      </c>
+      <c r="B659" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>gabriel.maglione</t>
+        </is>
+      </c>
+      <c r="B660" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>trisha_rangi</t>
+        </is>
+      </c>
+      <c r="B661" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>strawbrrymatcha_</t>
+        </is>
+      </c>
+      <c r="B662" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>noahlwanga</t>
+        </is>
+      </c>
+      <c r="B663" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>marwann.nn</t>
+        </is>
+      </c>
+      <c r="B664" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>sujay.maddireddy</t>
+        </is>
+      </c>
+      <c r="B665" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>pi.anogirl</t>
+        </is>
+      </c>
+      <c r="B666" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>ginanana_l</t>
+        </is>
+      </c>
+      <c r="B667" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>tshaf56</t>
+        </is>
+      </c>
+      <c r="B668" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>indyjones6</t>
+        </is>
+      </c>
+      <c r="B669" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>dihaddads</t>
+        </is>
+      </c>
+      <c r="B670" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>reddy_mom</t>
+        </is>
+      </c>
+      <c r="B671" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>cgisumich</t>
+        </is>
+      </c>
+      <c r="B672" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>anvita_ag</t>
+        </is>
+      </c>
+      <c r="B673" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>vankampen.malea</t>
+        </is>
+      </c>
+      <c r="B674" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>fepagani_sp</t>
+        </is>
+      </c>
+      <c r="B675" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>krystof_baca</t>
+        </is>
+      </c>
+      <c r="B676" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>peterdeegankrause</t>
+        </is>
+      </c>
+      <c r="B677" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>tbs_scorch</t>
+        </is>
+      </c>
+      <c r="B678" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>yu_son2</t>
+        </is>
+      </c>
+      <c r="B679" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>mandatoryeagle</t>
+        </is>
+      </c>
+      <c r="B680" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>delana25912</t>
+        </is>
+      </c>
+      <c r="B681" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>okoook0104</t>
+        </is>
+      </c>
+      <c r="B682" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>carissa.mayah</t>
+        </is>
+      </c>
+      <c r="B683" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>dominik_bodz</t>
+        </is>
+      </c>
+      <c r="B684" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>hadleyhart</t>
+        </is>
+      </c>
+      <c r="B685" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>nick.x.g</t>
+        </is>
+      </c>
+      <c r="B686" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>ibbybajwa</t>
+        </is>
+      </c>
+      <c r="B687" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>kiwidurbin42</t>
+        </is>
+      </c>
+      <c r="B688" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>amogus_giga_chad_sus</t>
+        </is>
+      </c>
+      <c r="B689" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>bennett.moffett</t>
+        </is>
+      </c>
+      <c r="B690" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>lucy3sun</t>
+        </is>
+      </c>
+      <c r="B691" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>lucas.tafara</t>
+        </is>
+      </c>
+      <c r="B692" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>blakenazar</t>
+        </is>
+      </c>
+      <c r="B693" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>nitrogenstars</t>
+        </is>
+      </c>
+      <c r="B694" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>kalebkm39</t>
+        </is>
+      </c>
+      <c r="B695" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>singh_shrutiii_</t>
+        </is>
+      </c>
+      <c r="B696" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>divya.ponda</t>
+        </is>
+      </c>
+      <c r="B697" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>nx.colee</t>
+        </is>
+      </c>
+      <c r="B698" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>pvazb</t>
+        </is>
+      </c>
+      <c r="B699" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>f._rolph_maza</t>
+        </is>
+      </c>
+      <c r="B700" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>jenniferhillman1266</t>
+        </is>
+      </c>
+      <c r="B701" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>frank.dlt</t>
+        </is>
+      </c>
+      <c r="B702" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>nataliana.jones_</t>
+        </is>
+      </c>
+      <c r="B703" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>luc_michaud_</t>
+        </is>
+      </c>
+      <c r="B704" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>graceeliao</t>
+        </is>
+      </c>
+      <c r="B705" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>romilo1500</t>
+        </is>
+      </c>
+      <c r="B706" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>_noraaalkh</t>
+        </is>
+      </c>
+      <c r="B707" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>austingorlitz</t>
+        </is>
+      </c>
+      <c r="B708" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>asiahh.1x</t>
+        </is>
+      </c>
+      <c r="B709" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>cameronbrosky</t>
+        </is>
+      </c>
+      <c r="B710" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>nick.y.15</t>
+        </is>
+      </c>
+      <c r="B711" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>michellewilliam9006</t>
+        </is>
+      </c>
+      <c r="B712" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>name67548</t>
+        </is>
+      </c>
+      <c r="B713" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>alisha.issa2</t>
+        </is>
+      </c>
+      <c r="B714" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>mberglund15</t>
+        </is>
+      </c>
+      <c r="B715" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>brooke.margg</t>
+        </is>
+      </c>
+      <c r="B716" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>angelica_w123</t>
+        </is>
+      </c>
+      <c r="B717" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>oliviaeby_</t>
+        </is>
+      </c>
+      <c r="B718" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>trashman350</t>
+        </is>
+      </c>
+      <c r="B719" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>johnny_karas</t>
+        </is>
+      </c>
+      <c r="B720" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>lukas.balestracci</t>
+        </is>
+      </c>
+      <c r="B721" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>rowena_kan</t>
+        </is>
+      </c>
+      <c r="B722" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>justjessicali</t>
+        </is>
+      </c>
+      <c r="B723" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>jackson_a_walker</t>
+        </is>
+      </c>
+      <c r="B724" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>keith.ez8</t>
+        </is>
+      </c>
+      <c r="B725" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>iman.dasht1</t>
+        </is>
+      </c>
+      <c r="B726" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>ed.chitown</t>
+        </is>
+      </c>
+      <c r="B727" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>julinali_</t>
+        </is>
+      </c>
+      <c r="B728" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>joanwily8</t>
+        </is>
+      </c>
+      <c r="B729" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>margok1109</t>
+        </is>
+      </c>
+      <c r="B730" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>langston_evans</t>
+        </is>
+      </c>
+      <c r="B731" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>beluga_whale_beach</t>
+        </is>
+      </c>
+      <c r="B732" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>b.rad92</t>
+        </is>
+      </c>
+      <c r="B733" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>karen_mellisah</t>
+        </is>
+      </c>
+      <c r="B734" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>_palomitas_ruiz</t>
+        </is>
+      </c>
+      <c r="B735" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>daniel.saltzman.18</t>
+        </is>
+      </c>
+      <c r="B736" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>acario2x</t>
+        </is>
+      </c>
+      <c r="B737" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>abdullahali_05</t>
+        </is>
+      </c>
+      <c r="B738" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>adele.havlick</t>
+        </is>
+      </c>
+      <c r="B739" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>_matthewhk</t>
+        </is>
+      </c>
+      <c r="B740" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>c.kty_</t>
+        </is>
+      </c>
+      <c r="B741" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>quinn_reese3636</t>
+        </is>
+      </c>
+      <c r="B742" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>jgipe35</t>
+        </is>
+      </c>
+      <c r="B743" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>malinamaxham</t>
+        </is>
+      </c>
+      <c r="B744" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>1jackdonohoe</t>
+        </is>
+      </c>
+      <c r="B745" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>abbysim0n</t>
+        </is>
+      </c>
+      <c r="B746" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>katelynabellera</t>
+        </is>
+      </c>
+      <c r="B747" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>bella.difiori</t>
+        </is>
+      </c>
+      <c r="B748" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>darnellperkins_</t>
+        </is>
+      </c>
+      <c r="B749" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>greg.hurst05</t>
+        </is>
+      </c>
+      <c r="B750" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>simon.shavit</t>
+        </is>
+      </c>
+      <c r="B751" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>auntie_sher</t>
+        </is>
+      </c>
+      <c r="B752" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>marissachavez74</t>
+        </is>
+      </c>
+      <c r="B753" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>joshmckenna370</t>
+        </is>
+      </c>
+      <c r="B754" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>littlelou828</t>
+        </is>
+      </c>
+      <c r="B755" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>kyle.h5</t>
+        </is>
+      </c>
+      <c r="B756" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>hollyburkhart</t>
+        </is>
+      </c>
+      <c r="B757" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>dylan.flohr</t>
+        </is>
+      </c>
+      <c r="B758" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>min_8ch</t>
+        </is>
+      </c>
+      <c r="B759" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>krahimi9</t>
+        </is>
+      </c>
+      <c r="B760" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>sarahskim9</t>
+        </is>
+      </c>
+      <c r="B761" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>chvistineagatha</t>
+        </is>
+      </c>
+      <c r="B762" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>yolonyu</t>
+        </is>
+      </c>
+      <c r="B763" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>dixon.chung25</t>
+        </is>
+      </c>
+      <c r="B764" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>celestia1_being</t>
+        </is>
+      </c>
+      <c r="B765" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>missycarson</t>
+        </is>
+      </c>
+      <c r="B766" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>hsinyu0701</t>
+        </is>
+      </c>
+      <c r="B767" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>abhi_neigh7</t>
+        </is>
+      </c>
+      <c r="B768" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>melaniejana94</t>
+        </is>
+      </c>
+      <c r="B769" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>troutdarren2</t>
+        </is>
+      </c>
+      <c r="B770" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>rodman3916</t>
+        </is>
+      </c>
+      <c r="B771" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>vitale_diamandis</t>
+        </is>
+      </c>
+      <c r="B772" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>homeswithzara</t>
+        </is>
+      </c>
+      <c r="B773" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>alexsrod13</t>
+        </is>
+      </c>
+      <c r="B774" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>chucky_1609</t>
+        </is>
+      </c>
+      <c r="B775" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>jace.vanderweide</t>
+        </is>
+      </c>
+      <c r="B776" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>aglizabeth</t>
+        </is>
+      </c>
+      <c r="B777" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>elisha.zhang05</t>
+        </is>
+      </c>
+      <c r="B778" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>loganlae2</t>
+        </is>
+      </c>
+      <c r="B779" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>analiserichiez</t>
+        </is>
+      </c>
+      <c r="B780" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>kenneth.moreno7</t>
+        </is>
+      </c>
+      <c r="B781" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>sophiamiakhan</t>
+        </is>
+      </c>
+      <c r="B782" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>m_hueng0808</t>
+        </is>
+      </c>
+      <c r="B783" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>urmijoglekar</t>
+        </is>
+      </c>
+      <c r="B784" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>thorn_hollow_vintage</t>
+        </is>
+      </c>
+      <c r="B785" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>bessy_rishel</t>
+        </is>
+      </c>
+      <c r="B786" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>sjn110</t>
+        </is>
+      </c>
+      <c r="B787" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>wearecareyaya</t>
+        </is>
+      </c>
+      <c r="B788" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>matthewmanley08</t>
+        </is>
+      </c>
+      <c r="B789" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>kkath.erine</t>
+        </is>
+      </c>
+      <c r="B790" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>autumn.allen.25</t>
+        </is>
+      </c>
+      <c r="B791" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>khushisumani02</t>
+        </is>
+      </c>
+      <c r="B792" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>analucia_hurtado_</t>
+        </is>
+      </c>
+      <c r="B793" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>thereallysillyseal</t>
+        </is>
+      </c>
+      <c r="B794" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>kaelibutcher</t>
+        </is>
+      </c>
+      <c r="B795" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>alexandramital</t>
+        </is>
+      </c>
+      <c r="B796" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>harrisonstelling</t>
+        </is>
+      </c>
+      <c r="B797" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>a_aliyah2000</t>
+        </is>
+      </c>
+      <c r="B798" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>umich.chill</t>
+        </is>
+      </c>
+      <c r="B799" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>nadsnod</t>
+        </is>
+      </c>
+      <c r="B800" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>lindamaria1115</t>
+        </is>
+      </c>
+      <c r="B801" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>impatient_pink_007</t>
+        </is>
+      </c>
+      <c r="B802" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>jay.v3r</t>
+        </is>
+      </c>
+      <c r="B803" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>davidolshinski</t>
+        </is>
+      </c>
+      <c r="B804" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>zoefulin_zb</t>
+        </is>
+      </c>
+      <c r="B805" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>indrxw</t>
+        </is>
+      </c>
+      <c r="B806" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>brichtwgrl</t>
+        </is>
+      </c>
+      <c r="B807" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>__sillyvic</t>
+        </is>
+      </c>
+      <c r="B808" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>tashfiqb</t>
+        </is>
+      </c>
+      <c r="B809" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>alang0223</t>
+        </is>
+      </c>
+      <c r="B810" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>srikumarkalyan</t>
+        </is>
+      </c>
+      <c r="B811" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>scarlett.butters</t>
+        </is>
+      </c>
+      <c r="B812" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>soccerelmer4</t>
+        </is>
+      </c>
+      <c r="B813" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>almahanadil</t>
+        </is>
+      </c>
+      <c r="B814" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>ryanpinsker</t>
+        </is>
+      </c>
+      <c r="B815" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>jacknotasnack</t>
+        </is>
+      </c>
+      <c r="B816" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>sara_bram00</t>
+        </is>
+      </c>
+      <c r="B817" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>tioptyry</t>
+        </is>
+      </c>
+      <c r="B818" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>sam.halum</t>
+        </is>
+      </c>
+      <c r="B819" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>shmarvin1</t>
+        </is>
+      </c>
+      <c r="B820" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>jadenakhtarzad</t>
+        </is>
+      </c>
+      <c r="B821" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>ella.n.k</t>
+        </is>
+      </c>
+      <c r="B822" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>karenp__22__</t>
+        </is>
+      </c>
+      <c r="B823" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>lf9q_8</t>
+        </is>
+      </c>
+      <c r="B824" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>ariana.kassam</t>
+        </is>
+      </c>
+      <c r="B825" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>peter.vandentoorn</t>
+        </is>
+      </c>
+      <c r="B826" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>sahithinalamothu_</t>
+        </is>
+      </c>
+      <c r="B827" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>eolej13</t>
+        </is>
+      </c>
+      <c r="B828" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>brianmagas</t>
+        </is>
+      </c>
+      <c r="B829" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>pr_ode</t>
+        </is>
+      </c>
+      <c r="B830" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>lilygarrett4</t>
+        </is>
+      </c>
+      <c r="B831" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>anna.k.zimmerman</t>
+        </is>
+      </c>
+      <c r="B832" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/umich.roomme.xlsx
+++ b/Marketing/umich.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">

--- a/Marketing/umich.roomme.xlsx
+++ b/Marketing/umich.roomme.xlsx
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">

--- a/Marketing/umich.roomme.xlsx
+++ b/Marketing/umich.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mmekhijones</t>
+          <t>jake.sheinberg</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>clara.chitty</t>
+          <t>haydenggarside</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>linz.ang</t>
+          <t>jakedawson18</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>downtosocial</t>
+          <t>dayanc4589</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>osorio_edwiin</t>
+          <t>naman_kabra</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sliva_marly_art</t>
+          <t>harkinsmic</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>maddiejoquico</t>
+          <t>brilliantacademix</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>brooklynmwalter</t>
+          <t>sahithinalamothu_</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jose_gito</t>
+          <t>amareharlan</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>alex._xzv</t>
+          <t>vmehrotr</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>idk123990123</t>
+          <t>maya.vukovicc</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>maramihanovic</t>
+          <t>lindaaaa_03143</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>amyherman2002</t>
+          <t>marwann.nn</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>laurel_k_thompson_</t>
+          <t>legacyannarbor</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>shelbyxholmes</t>
+          <t>thorn_hollow_vintage</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sujay.maddireddy</t>
+          <t>ethanshemtov</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>yunsanghyeon386</t>
+          <t>uzmaabdullah1</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hsinyu0701</t>
+          <t>jacksonbeery24</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>_liyahhhhhhh_17</t>
+          <t>patrick.foley11</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>maya_hervey</t>
+          <t>joanwily8</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>marcelo274silva</t>
+          <t>hannaah.pham</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jasonmajoros712</t>
+          <t>parkerjn07</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ragavb21</t>
+          <t>hollyburkhart</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>randlekado</t>
+          <t>_whit_neyy8</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>niisshhaa.aa</t>
+          <t>sarataki2.0</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>curryjackson1</t>
+          <t>rowanc019</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>alex.ihc</t>
+          <t>dixon.chung25</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>charlottebrodhead</t>
+          <t>camelliaaa_aaaa</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>furrychicken23565</t>
+          <t>joshsos39</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>krahimi9</t>
+          <t>rahimiheidi</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hasan.yasin01</t>
+          <t>lily.broberg</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>jake.bedigian</t>
+          <t>kajsorens</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>dixon.chung25</t>
+          <t>emma_nuel407</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>evanh1122</t>
+          <t>phb11677</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>epuni76</t>
+          <t>ccchuckchung</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ajupiter05</t>
+          <t>maekaylla</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>alexandramital</t>
+          <t>imanthehedgehog_</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>thevanessadominguez</t>
+          <t>ade_stapleton</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>kareensam27</t>
+          <t>youssel.kriko</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lavenderandhydrangeas</t>
+          <t>nikhibhaskar04</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>kendallmmargolis</t>
+          <t>meeraboyapati</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>moanawery</t>
+          <t>ashley201173</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>eric._.wu</t>
+          <t>hsinyu0701</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>lea.hsu</t>
+          <t>bigdaddyoskah</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ellamrizzo</t>
+          <t>maramihanovic</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>herrinbox4</t>
+          <t>sam.halum</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>jacknotasnack</t>
+          <t>gaty_sean30</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>jchaps.05</t>
+          <t>becccaliu</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gab_graciart</t>
+          <t>stevehen_fx222</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>felipe.garcia.7</t>
+          <t>ye13589</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>brayden_bolthouse</t>
+          <t>michaelduong314</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>youssel.kriko</t>
+          <t>jake.bedigian</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>aaronlaakso</t>
+          <t>reddy_mom</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sandrajane6041</t>
+          <t>kayleesyvone</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0justdana2</t>
+          <t>yanalafore</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mandatoryeagle</t>
+          <t>n.mchugh11</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>jln.yn_</t>
+          <t>nukety1</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>si_schwa1</t>
+          <t>cameron_saylor20</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>v.i.c.334</t>
+          <t>_avery.allen_</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>layth_kakish</t>
+          <t>bodega_bros</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ade_stapleton</t>
+          <t>jjpooter</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>stickrundoubler05</t>
+          <t>alex.ihc</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>nina.frias</t>
+          <t>lindamaria1115</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>best_cheap_cars</t>
+          <t>shumakr</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>jake.sheinberg</t>
+          <t>garylucywillams</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>a_aliyah2000</t>
+          <t>tazz_sy</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ethanshemtov</t>
+          <t>jax_onbrewer</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>honglact</t>
+          <t>audrey_loves_stories</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ivona_2968</t>
+          <t>best_cheap_cars</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>fcrbsies</t>
+          <t>king.jlaw</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ryan.hoehler</t>
+          <t>thevanessadominguez</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>rahimiheidi</t>
+          <t>epuni76</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>vibewith.ada</t>
+          <t>sergeantmarkwade</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>noah_perez28</t>
+          <t>margitcfried</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>kalpesh2409</t>
+          <t>lily.stalewski</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>bessy_rishel</t>
+          <t>mathassitance</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>clarajthomas</t>
+          <t>emmapopoff</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hansonwu17</t>
+          <t>skesa01</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>sarah.a.abdullah</t>
+          <t>minwerner4</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>jackson.park05</t>
+          <t>babocheung</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,831 +1248,831 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>freshwaterscents</t>
+          <t>lukas.balestracci</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>karishma_s123</t>
+          <t>coswalt_</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>amareharlan</t>
+          <t>dal_jiyu</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>egeng55</t>
+          <t>nick_inra</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dylan.flohr</t>
+          <t>mira.mirrored</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>victorialinda647</t>
+          <t>owen_finlay5</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>aaronwalenciak</t>
+          <t>bellakarafilis8</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bryannazar_</t>
+          <t>_averymax</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ryanphaan</t>
+          <t>austingorlitz</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>dayanc4589</t>
+          <t>emmald7154</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>rohinb19</t>
+          <t>maribellaespino</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>karen.samaha</t>
+          <t>ernie_sleeping</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>meghan.t_</t>
+          <t>ethancvong</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>yfu0508</t>
+          <t>tessa.florida</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>dagib_oi</t>
+          <t>_lindseygleason</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>gaty_sean30</t>
+          <t>rj_t001</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>bernice_john2</t>
+          <t>ciennabillingsley</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>moniqquex_</t>
+          <t>annab23_</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>declandowd</t>
+          <t>benpritch00</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>meeraboyapati</t>
+          <t>dogsrcool9162</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ryanpinsker</t>
+          <t>karishma_s123</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>lucas.tafara</t>
+          <t>chocolate_chip_adventures</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>jacobcooley25</t>
+          <t>slackercsu</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>oluwakayode696_</t>
+          <t>kyliesandmire</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>megalo_05</t>
+          <t>krystof_baca</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ryanloychik27</t>
+          <t>jamesbivona_</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>nick_inra</t>
+          <t>louisv972</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>victoria_kennedyqiu</t>
+          <t>_snigdhakondur</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>suegoblue</t>
+          <t>blllake29</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>tasha_bvv</t>
+          <t>kchungshin</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>lilygarrett4</t>
+          <t>im.kevin.m</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ginanana_l</t>
+          <t>alisha.issa2</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>mangojewell</t>
+          <t>kenny_deng432</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>blakenazar</t>
+          <t>ariana.kassam</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1jackdonohoe</t>
+          <t>ryan.hoehler</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>oliviaeby_</t>
+          <t>lucalazaris7</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>john.m.fein</t>
+          <t>irgi.asp</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>nick.x.g</t>
+          <t>sarahskim9</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>gularenzo</t>
+          <t>deegrayson</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>lindamaria1115</t>
+          <t>amywebster._</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>k.12o1</t>
+          <t>jackbacarrra</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>liamhenning77</t>
+          <t>rado.julien</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ellykoopersmith</t>
+          <t>honglact</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>nataliana.jones_</t>
+          <t>kev.rutz</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>jenatemple</t>
+          <t>literally_an_ice_cube</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>sevelyn13</t>
+          <t>kalebkm39</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>zizou_el011</t>
+          <t>milmil123098</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>leslie.gp3</t>
+          <t>nataliana.jones_</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>jeremymoo.n</t>
+          <t>jaclyndierkes_</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>annab23_</t>
+          <t>michealdennis53</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>insanely.kia</t>
+          <t>samjb33</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>shiraharonnn</t>
+          <t>magh.ie</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ryan.oshaug</t>
+          <t>ranya0270</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>davidolshinski</t>
+          <t>1jackdonohoe</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>elisecitraro</t>
+          <t>bessy_rishel</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>elisha.zhang05</t>
+          <t>srikumarkalyan</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ecograd23</t>
+          <t>curryjackson1</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>chvistineagatha</t>
+          <t>downtosocial</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>laurenbergman1</t>
+          <t>ilsang91za</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>irgi.asp</t>
+          <t>danny.vega7</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>shreeyansh17</t>
+          <t>linz.ang</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>23bryang</t>
+          <t>dawson_sharpley12</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>gilly.reynoldss</t>
+          <t>declandowd</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>vedachil</t>
+          <t>alex._xzv</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>micaylahorwitz</t>
+          <t>maddyschong</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>flowbatifhewasinohio</t>
+          <t>adiagandhi_</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>no.jxm</t>
+          <t>ccarroly.eung</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>echo_jan3</t>
+          <t>bochenoweth</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>dihaddads</t>
+          <t>sweetsillysuki</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>saraajulietaa</t>
+          <t>rsaumich</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>youheniu</t>
+          <t>zoozthegooz</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>jtcali2atl</t>
+          <t>louie_beardell</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>asha.haley_</t>
+          <t>crossfield.nick</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ryan.whelden</t>
+          <t>brendanlafrenier</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>chiefsoner</t>
+          <t>andy_nmn_yao</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>suraj.pangal</t>
+          <t>zhangwei66</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>bry_ceen</t>
+          <t>tonilarocco</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>pdobrz</t>
+          <t>michigansigep</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>lolmeleck</t>
+          <t>braydonevans__</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>bradleycalkins_</t>
+          <t>jace.vanderweide</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>justin.goldin</t>
+          <t>pi.anogirl</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>shwny_boy</t>
+          <t>zizou_el011</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>_jackieholt</t>
+          <t>arnav.kadam23</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -2082,173 +2082,173 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>jessicaviana555</t>
+          <t>amyherman2002</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>dogsrcool9162</t>
+          <t>kashcarmello</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>gracecox08</t>
+          <t>gabetoz</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>andy_nmn_yao</t>
+          <t>ammar0bt</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>dreyvonsimmons</t>
+          <t>ashcollier</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>vrenimarie</t>
+          <t>sheldo0506</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>miasegoviaa</t>
+          <t>bingebungalow</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>priya.gutta</t>
+          <t>abhi_neigh7</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>maya_tashy</t>
+          <t>dominik_bodz</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>rickchen0630</t>
+          <t>jcturner11</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>henriue__</t>
+          <t>cour.tneyblake</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>kimtungtungi</t>
+          <t>allegrajadeisdar</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>asiahh.1x</t>
+          <t>analiserichiez</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>tejp05</t>
+          <t>haameemkibria</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>slackerwvu</t>
+          <t>anna.k.zimmerman</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>stacysarner</t>
+          <t>daniikasper</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ianpark54</t>
+          <t>254dimitrov</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>justinee.kyi</t>
+          <t>lrsnmtthw</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>literally_an_ice_cube</t>
+          <t>mbabes143_</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>arjun_abhyankar</t>
+          <t>erentahtaci04</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>mihirbae</t>
+          <t>beluga_whale_beach</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>who.isrob</t>
+          <t>_keagen_08_</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>analeise.s</t>
+          <t>ejm_0506</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>wubudubdubdub</t>
+          <t>asher_besson</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>jschreiber923</t>
+          <t>eolej13</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>bennett.moffett</t>
+          <t>valeria.paola.528</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>vbnmrev</t>
+          <t>kareensam27</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>samypatel_</t>
+          <t>aesconference2023</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>modern_interiordecor</t>
+          <t>kloe.anderson</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>im.kevin.m</t>
+          <t>joelsam852</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>alex_istock</t>
+          <t>christidiggs</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>abraham.mansuroglu</t>
+          <t>k.12o1</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>phb11677</t>
+          <t>dana.dughbajj</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>michaeldancea</t>
+          <t>rizzo2360joey</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>kyliesandmire</t>
+          <t>skzoll</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>carissa.mayah</t>
+          <t>mihirbae</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>melaniejana94</t>
+          <t>pinnjirachaya</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>xavier.jasmin</t>
+          <t>isabellaacarlino</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>daniikasper</t>
+          <t>ryanbinge_</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>noelandfinn</t>
+          <t>ajupiter05</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>isabellaacarlino</t>
+          <t>dihaddads</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>demario416</t>
+          <t>ashleykronenberg</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>casey.stor</t>
+          <t>_matthewhk</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>orennochimowski</t>
+          <t>salonigsingh</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>tonilarocco</t>
+          <t>bernice_john2</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>hoahmad198</t>
+          <t>realspallav</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>turkeytreehouse</t>
+          <t>brinstondsouza</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>hopesiwek</t>
+          <t>ealozano.07</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>itsjessicaherrera</t>
+          <t>moanawery</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>francis114646</t>
+          <t>veronicasabatino_</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>stevehen_fx222</t>
+          <t>ameera.aali</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>trashman350</t>
+          <t>emmanuel19385</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>coswalt_</t>
+          <t>max27cohen</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>maddyschong</t>
+          <t>dreyvonsimmons</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>jwhite928</t>
+          <t>jefford_shau</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ethanfahrbach7</t>
+          <t>f._rolph_maza</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>manishileni</t>
+          <t>helloitwillham</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>nwolfe41</t>
+          <t>manroopnijjar</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>k8rockefeller__</t>
+          <t>angelica_w123</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>anto_niyar</t>
+          <t>orennochimowski</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>max27cohen</t>
+          <t>seph0rabran</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>yamii.r_10</t>
+          <t>diego_maldo.pr</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>samarth_rajagopal</t>
+          <t>lilygarrett4</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>jjpooter</t>
+          <t>134rman</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>lozydog</t>
+          <t>jkriversz</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>gabyalgood</t>
+          <t>kati.ebeckett</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>loganlae2</t>
+          <t>claraartley</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>dayna.niah</t>
+          <t>who.isrob</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>sital_emma</t>
+          <t>drozeduardo</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>astintorrey</t>
+          <t>vankampen.malea</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>annmargretmanley1965</t>
+          <t>sarah.salvina</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>olivia.rose.arnold</t>
+          <t>jennifermaryliss</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>_nickjjohnson_</t>
+          <t>grin.umich</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>squale0921</t>
+          <t>okoook0104</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>jordanplocker_</t>
+          <t>lmintzer13</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>aarav_shah_</t>
+          <t>stchuck313</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>nitrogenstars</t>
+          <t>olivia.rose.arnold</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>alisha.issa2</t>
+          <t>analucia_hurtado_</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>_lindseygleason</t>
+          <t>samantha_m_liu</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>jaclyndierkes_</t>
+          <t>gaudlap.thomas</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>zoozthegooz</t>
+          <t>user49292782715</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>karthikk.xv</t>
+          <t>cgisumich</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>amel.iawa</t>
+          <t>ufw.chase</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>jack_riordan13</t>
+          <t>troberts_9</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>tessa.florida</t>
+          <t>jschreiber923</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>courtneysolomon_</t>
+          <t>sarnophs</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>_jacktemple</t>
+          <t>freshwaterscents</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>aristide.jg</t>
+          <t>bvoto</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>destinys_a9</t>
+          <t>squale0921</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>izabella.ld</t>
+          <t>juliahuth9</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>uzmaabdullah1</t>
+          <t>tyler_aldave</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>flannery.streiff</t>
+          <t>amogh_madireddi</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>mjbslider</t>
+          <t>peter.vandentoorn</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>yygixs</t>
+          <t>indrxw</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>bvoto</t>
+          <t>amanti_house</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>cesarolguin10</t>
+          <t>mitchb_11</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>__sillyvic</t>
+          <t>arjun_abhyankar</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>liviiibeck</t>
+          <t>slackerpitt</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>tanay_pingle27</t>
+          <t>h.wells2004</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>samjiang47</t>
+          <t>abraham.mansuroglu</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>jalen.hoffman</t>
+          <t>jose_gito</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>molliemeadorr</t>
+          <t>celinerinks</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ameera.aali</t>
+          <t>valerieseitz</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>lucasmateof</t>
+          <t>nina.gernhardt</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>lily.pine</t>
+          <t>drew_asherman_</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ye13589</t>
+          <t>alex_istock</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>anthony_colavecchio</t>
+          <t>darnellperkins_</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>elirankaduri123</t>
+          <t>annika_juliusson</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>strikergurl_</t>
+          <t>michiganhockeyleague</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>jadensheng2</t>
+          <t>tasha_bvv</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>manasvipatel_23</t>
+          <t>zayden_boonstra</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>jcturner11</t>
+          <t>ayush.chhabra_1</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>camerondavis504</t>
+          <t>alexandramital</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>kourtnii44</t>
+          <t>lucasmateof</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>peytondarwish</t>
+          <t>sophia.danak</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>sid.d621</t>
+          <t>brockshively</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>wearecareyaya</t>
+          <t>ryan.oshaug</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>slackerpitt</t>
+          <t>sandrajane6041</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>dgiganti8</t>
+          <t>alang0223</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>dawn_jula</t>
+          <t>felipe.garcia.7</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>shankha.mitra</t>
+          <t>francis114646</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>kloe.anderson</t>
+          <t>megann.brucee</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>evelyn.antony</t>
+          <t>homeswithzara</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>sophia.wang2</t>
+          <t>dagib_oi</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>anaamsingh</t>
+          <t>stephavitt</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>dal_jiyu</t>
+          <t>samantha_chklovskii</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>mayaguacci</t>
+          <t>suegoblue</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>pandaflags</t>
+          <t>signe_joyce</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>lucy._miller</t>
+          <t>gracyn.beck</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>iamtaag</t>
+          <t>clintblack0076546</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>lopeze322019</t>
+          <t>jonahschloerb</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>alyssakelly4269</t>
+          <t>gabby.miller00</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>matheny226</t>
+          <t>evan_m3315</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>kayli.annaa</t>
+          <t>blackout_boston</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>emmaarnhols</t>
+          <t>spencer11smith</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>lindseyhamama</t>
+          <t>blakenazar</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>tonya_hensley_sullivan</t>
+          <t>maya_hervey</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>divya.rao.04</t>
+          <t>moniqquex_</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>siapatel16</t>
+          <t>bradleycalkins_</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>karstrotz24</t>
+          <t>ddanielwang</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>mark.g.yall</t>
+          <t>siapatel16</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>jpramos115</t>
+          <t>herrinbox4</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ashleydyan3</t>
+          <t>sian.loughran</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>angeni.priyanka</t>
+          <t>tshaf56</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>zayden_boonstra</t>
+          <t>umich.youngdisciples</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>zengoosebump</t>
+          <t>charlottebrodhead</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>bellakarafilis8</t>
+          <t>destinys_a9</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>humbled.alex</t>
+          <t>simranisbrown</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>sarataki2.0</t>
+          <t>leakytip77</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ashley201173</t>
+          <t>maddiejoquico</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>gabriel.maglione</t>
+          <t>johnny_karas</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,180 +3608,10 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>celestia1_being</t>
+          <t>vbnmrev</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>divya.ponda</t>
-        </is>
-      </c>
-      <c r="B319" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>parker.boyden</t>
-        </is>
-      </c>
-      <c r="B320" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>malinamaxham</t>
-        </is>
-      </c>
-      <c r="B321" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>michigansigep</t>
-        </is>
-      </c>
-      <c r="B322" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>j.fozzzsta</t>
-        </is>
-      </c>
-      <c r="B323" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>komaromibrock</t>
-        </is>
-      </c>
-      <c r="B324" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>connor.shard</t>
-        </is>
-      </c>
-      <c r="B325" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>obengemmanuel631</t>
-        </is>
-      </c>
-      <c r="B326" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>helloitwillham</t>
-        </is>
-      </c>
-      <c r="B327" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>emma_nuel407</t>
-        </is>
-      </c>
-      <c r="B328" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>laurien_23</t>
-        </is>
-      </c>
-      <c r="B329" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>quinn_reese3636</t>
-        </is>
-      </c>
-      <c r="B330" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>mb.jaydenn</t>
-        </is>
-      </c>
-      <c r="B331" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>_cjreilly</t>
-        </is>
-      </c>
-      <c r="B332" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>michigan19375</t>
-        </is>
-      </c>
-      <c r="B333" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>gabby.m_1323</t>
-        </is>
-      </c>
-      <c r="B334" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>nidhi6150</t>
-        </is>
-      </c>
-      <c r="B335" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/umich.roomme.xlsx
+++ b/Marketing/umich.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jake.sheinberg</t>
+          <t>jack.templeton5</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>haydenggarside</t>
+          <t>julietkeefe_</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jakedawson18</t>
+          <t>jo.s3__</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dayanc4589</t>
+          <t>disneyadventuregirl_</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>naman_kabra</t>
+          <t>kylagardnerr</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>harkinsmic</t>
+          <t>gwynethvdbelt</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>brilliantacademix</t>
+          <t>christian.tiera</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sahithinalamothu_</t>
+          <t>sami_morse8</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>amareharlan</t>
+          <t>_brian_lee_407</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vmehrotr</t>
+          <t>willfurge</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>maya.vukovicc</t>
+          <t>noelandfinn</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lindaaaa_03143</t>
+          <t>audrey_shabelski</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>marwann.nn</t>
+          <t>elsa.feld</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>legacyannarbor</t>
+          <t>loreto_chiovari</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>thorn_hollow_vintage</t>
+          <t>ryanhealy05</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ethanshemtov</t>
+          <t>chrisma_mbala</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>uzmaabdullah1</t>
+          <t>krisa.xoxo</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jacksonbeery24</t>
+          <t>chloebrookes2685</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>patrick.foley11</t>
+          <t>onavinyard199973</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>joanwily8</t>
+          <t>jack.m8164</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>hannaah.pham</t>
+          <t>lexiegreenee</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>parkerjn07</t>
+          <t>owen_ballor</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hollyburkhart</t>
+          <t>vi.sh8880</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>_whit_neyy8</t>
+          <t>cooperzentner</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>sarataki2.0</t>
+          <t>valjoyyang</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rowanc019</t>
+          <t>gianna.weisberg</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>dixon.chung25</t>
+          <t>_laynakuhn</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>camelliaaa_aaaa</t>
+          <t>isondg_32</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>joshsos39</t>
+          <t>_alyssa.lopez</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>rahimiheidi</t>
+          <t>watt.noah</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lily.broberg</t>
+          <t>berrygodden</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>kajsorens</t>
+          <t>cathleenwiatrowski</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>emma_nuel407</t>
+          <t>alpaslan.exe</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>phb11677</t>
+          <t>aviadelya</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ccchuckchung</t>
+          <t>luke__d__7</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>maekaylla</t>
+          <t>milet__fignon</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>imanthehedgehog_</t>
+          <t>rylan_teddy</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ade_stapleton</t>
+          <t>reaves.lo</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>youssel.kriko</t>
+          <t>aubreycauduro</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>nikhibhaskar04</t>
+          <t>_amandashumaker</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>meeraboyapati</t>
+          <t>lindsaykundich_</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ashley201173</t>
+          <t>alexandradoytcheva</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hsinyu0701</t>
+          <t>abby_bennetttt</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bigdaddyoskah</t>
+          <t>leah.simetz</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>maramihanovic</t>
+          <t>almahagopian</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sam.halum</t>
+          <t>bellagtp</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>gaty_sean30</t>
+          <t>abbybrink_</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>becccaliu</t>
+          <t>jvke05dill</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>stevehen_fx222</t>
+          <t>alex.drake29</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ye13589</t>
+          <t>ella_stangl</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>michaelduong314</t>
+          <t>minjaekoo_</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>jake.bedigian</t>
+          <t>mackenzieflammer</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>reddy_mom</t>
+          <t>celinacookson</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kayleesyvone</t>
+          <t>clowietidwell</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>yanalafore</t>
+          <t>miarswanson</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>n.mchugh11</t>
+          <t>do.novan4249</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>nukety1</t>
+          <t>jocelyn.hughesss</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cameron_saylor20</t>
+          <t>stellakroth</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>_avery.allen_</t>
+          <t>maya_the_actual_papaya</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bodega_bros</t>
+          <t>madisonfriedman__</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jjpooter</t>
+          <t>stella.tontcheva</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>alex.ihc</t>
+          <t>megan.kennedyy</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>lindamaria1115</t>
+          <t>emilyhuggins07</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>shumakr</t>
+          <t>chriscavanaugh_</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>garylucywillams</t>
+          <t>alexisbutum</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>tazz_sy</t>
+          <t>evad_33</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>jax_onbrewer</t>
+          <t>noalzathletics</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>audrey_loves_stories</t>
+          <t>sidd_chilpuri</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>best_cheap_cars</t>
+          <t>suzokiart</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>king.jlaw</t>
+          <t>lizameyerhardt</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>thevanessadominguez</t>
+          <t>nat.alie_fuentes</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>epuni76</t>
+          <t>beritberggren_</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sergeantmarkwade</t>
+          <t>ethan_miller24</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>margitcfried</t>
+          <t>komaromibrock</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>lily.stalewski</t>
+          <t>sammylichtenberger</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mathassitance</t>
+          <t>lexi.z04</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>emmapopoff</t>
+          <t>_benfalicki</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>skesa01</t>
+          <t>averycauds</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>minwerner4</t>
+          <t>matteasokolow</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>babocheung</t>
+          <t>anirudh.b20</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,507 +1248,507 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>lukas.balestracci</t>
+          <t>lorenadavilar</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>coswalt_</t>
+          <t>soapsdiarys</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>dal_jiyu</t>
+          <t>izelaxq_vq049992</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nick_inra</t>
+          <t>michaela.dahlke</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>mira.mirrored</t>
+          <t>emmakuleszaa</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>owen_finlay5</t>
+          <t>marcelokuperwas</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bellakarafilis8</t>
+          <t>olga.s.05</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>_averymax</t>
+          <t>zayden_boonstra</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>austingorlitz</t>
+          <t>norahh.pope</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>emmald7154</t>
+          <t>john.adams._</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>maribellaespino</t>
+          <t>alyssadefields</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ernie_sleeping</t>
+          <t>marmos.art</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ethancvong</t>
+          <t>kateleland1</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>tessa.florida</t>
+          <t>trisha.jois</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>_lindseygleason</t>
+          <t>roshnikoduri</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>rj_t001</t>
+          <t>general.quak</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ciennabillingsley</t>
+          <t>jacob_galacz</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>annab23_</t>
+          <t>ivyramey</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>benpritch00</t>
+          <t>itoko__san</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>dogsrcool9162</t>
+          <t>boonstra5</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>karishma_s123</t>
+          <t>cmanolias717</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>chocolate_chip_adventures</t>
+          <t>tessera.hovermale.19</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>slackercsu</t>
+          <t>emersyn.zehnder</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>kyliesandmire</t>
+          <t>graycieschroeder</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>krystof_baca</t>
+          <t>jleff777</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>jamesbivona_</t>
+          <t>sara.berz</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>louisv972</t>
+          <t>rileyeg12</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>_snigdhakondur</t>
+          <t>madisonknoerr</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>blllake29</t>
+          <t>girl.from.mars_</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>kchungshin</t>
+          <t>clare_kellyyy</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>im.kevin.m</t>
+          <t>mattvarelaa</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>alisha.issa2</t>
+          <t>sushisakegables</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>kenny_deng432</t>
+          <t>daliyuhhh</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ariana.kassam</t>
+          <t>alexxtran</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ryan.hoehler</t>
+          <t>aaryaman2005</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>lucalazaris7</t>
+          <t>sanjanakumari7369</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>irgi.asp</t>
+          <t>_peter_huang_</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sarahskim9</t>
+          <t>nataliaa.foster</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>deegrayson</t>
+          <t>thepattycarey</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>amywebster._</t>
+          <t>laforestryan</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>jackbacarrra</t>
+          <t>cxle1211</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>rado.julien</t>
+          <t>olivia.komosa</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>honglact</t>
+          <t>avajohnson.01</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>kev.rutz</t>
+          <t>kelsey_goodal</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>literally_an_ice_cube</t>
+          <t>l.u.k.e.mcguinness</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>kalebkm39</t>
+          <t>delamartertresa</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>milmil123098</t>
+          <t>maddie__summer</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>nataliana.jones_</t>
+          <t>m200sinper</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>jaclyndierkes_</t>
+          <t>bbrooklyncole_</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>michealdennis53</t>
+          <t>mate_boross</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>samjb33</t>
+          <t>mae.m.b</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>magh.ie</t>
+          <t>katherinelistman</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ranya0270</t>
+          <t>elakorthuis</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1jackdonohoe</t>
+          <t>adysonduvall</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>bessy_rishel</t>
+          <t>jjlc2013</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>srikumarkalyan</t>
+          <t>sabrinanunezy</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>curryjackson1</t>
+          <t>anirudh.devara</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>downtosocial</t>
+          <t>tayliinn</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ilsang91za</t>
+          <t>hyt20020807</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>danny.vega7</t>
+          <t>serenaedwards17</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>linz.ang</t>
+          <t>kaylaguthrie7</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>dawson_sharpley12</t>
+          <t>beri_tan653</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>declandowd</t>
+          <t>jesusalaniz22_</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>alex._xzv</t>
+          <t>luca.s.delorenzo</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>maddyschong</t>
+          <t>talia.lasko</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>adiagandhi_</t>
+          <t>gwen.kudlack</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ccarroly.eung</t>
+          <t>skenyc</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>bochenoweth</t>
+          <t>judyho12345</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>sweetsillysuki</t>
+          <t>bellagiannettii</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>rsaumich</t>
+          <t>tienbran</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>zoozthegooz</t>
+          <t>katiemarsik</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>louie_beardell</t>
+          <t>dekyas13</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>crossfield.nick</t>
+          <t>kale_lago</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>brendanlafrenier</t>
+          <t>patience.grobes</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>andy_nmn_yao</t>
+          <t>mason.olvera</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>zhangwei66</t>
+          <t>bradynlehman</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>tonilarocco</t>
+          <t>emmersonboynton</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>michigansigep</t>
+          <t>lex_goldman</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>braydonevans__</t>
+          <t>elliotvrooster</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>jace.vanderweide</t>
+          <t>arihickman_8</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>pi.anogirl</t>
+          <t>cgisumich</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>zizou_el011</t>
+          <t>s._.tkim</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>arnav.kadam23</t>
+          <t>haleywashburn13</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>patience._sims</t>
+          <t>lilyroseshaman</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>amyherman2002</t>
+          <t>sakeenasheikh_</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>kashcarmello</t>
+          <t>ellycox2</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>gabetoz</t>
+          <t>alex_.boyd</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ammar0bt</t>
+          <t>timmib0813</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ashcollier</t>
+          <t>sweetguy42022</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sheldo0506</t>
+          <t>aguilar17alex</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>bingebungalow</t>
+          <t>noemie.d04</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>abhi_neigh7</t>
+          <t>brookemozarskyy</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>dominik_bodz</t>
+          <t>luminescentbulb</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>jcturner11</t>
+          <t>greta.lampen</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>cour.tneyblake</t>
+          <t>demikurtzz</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>allegrajadeisdar</t>
+          <t>lilly_stid</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>analiserichiez</t>
+          <t>priyankalulu</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>haameemkibria</t>
+          <t>elyssa_weiss</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>anna.k.zimmerman</t>
+          <t>aves_donaldson</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>daniikasper</t>
+          <t>jase.wartgow</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>254dimitrov</t>
+          <t>jacobgilsonn</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>lrsnmtthw</t>
+          <t>ivy.coe</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>mbabes143_</t>
+          <t>bi.anca_perez</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>erentahtaci04</t>
+          <t>alijon2524</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>beluga_whale_beach</t>
+          <t>avery.charlton_</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>_keagen_08_</t>
+          <t>jorja_marie06</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ejm_0506</t>
+          <t>0ula_p</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>asher_besson</t>
+          <t>miadonovan8503</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>eolej13</t>
+          <t>omi.n_</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>valeria.paola.528</t>
+          <t>mallory.rush</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>kareensam27</t>
+          <t>himanishkolli</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>aesconference2023</t>
+          <t>johnryan064</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>kloe.anderson</t>
+          <t>ellengramss</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>joelsam852</t>
+          <t>whiteesilk</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>christidiggs</t>
+          <t>_elledaviss</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>k.12o1</t>
+          <t>c4.derrick</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>dana.dughbajj</t>
+          <t>isabelle.lindsey</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>rizzo2360joey</t>
+          <t>auds_williams</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>skzoll</t>
+          <t>tayler.thomps0n</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>mihirbae</t>
+          <t>berminghamkent</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>pinnjirachaya</t>
+          <t>charlie.mckay.23</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>isabellaacarlino</t>
+          <t>alexcmuresan</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ryanbinge_</t>
+          <t>hunter_melton_</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ajupiter05</t>
+          <t>jenna_hanes</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>dihaddads</t>
+          <t>usrighosh</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ashleykronenberg</t>
+          <t>alfredo_mendeval</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>_matthewhk</t>
+          <t>kinleyclaypool_</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>salonigsingh</t>
+          <t>seriana.katz</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>bernice_john2</t>
+          <t>gabe_rub</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>realspallav</t>
+          <t>copenhaverchristina</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>brinstondsouza</t>
+          <t>janetjiang99</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ealozano.07</t>
+          <t>katephilliips</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>moanawery</t>
+          <t>franciswats0n</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>veronicasabatino_</t>
+          <t>aaaaari_b</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ameera.aali</t>
+          <t>camilleflorie</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>emmanuel19385</t>
+          <t>nate.nacino</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>max27cohen</t>
+          <t>elizabeth.perusse</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>dreyvonsimmons</t>
+          <t>auliya3725</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>jefford_shau</t>
+          <t>shereemurcia</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>f._rolph_maza</t>
+          <t>froggy_888</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>helloitwillham</t>
+          <t>emmaportnoyy</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>manroopnijjar</t>
+          <t>roman_chromy</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>angelica_w123</t>
+          <t>natfernandezbal</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>orennochimowski</t>
+          <t>ssanvikaa</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>seph0rabran</t>
+          <t>brettchampagne2</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>diego_maldo.pr</t>
+          <t>nora.burdette</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>lilygarrett4</t>
+          <t>sophianbunnell</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>134rman</t>
+          <t>camrynstaversky</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>jkriversz</t>
+          <t>elizabeth.eckerman</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>kati.ebeckett</t>
+          <t>annalonsooo</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>claraartley</t>
+          <t>bella_wernli</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>who.isrob</t>
+          <t>veveheyman</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>drozeduardo</t>
+          <t>sethseiden</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>vankampen.malea</t>
+          <t>anirudh.ale</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>sarah.salvina</t>
+          <t>afrias1999</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>jennifermaryliss</t>
+          <t>anum.ehra123</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>grin.umich</t>
+          <t>lizabethsleper</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>okoook0104</t>
+          <t>neiveconnaughton</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>lmintzer13</t>
+          <t>clara.marie.kav</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>stchuck313</t>
+          <t>isabelbadhwa</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>olivia.rose.arnold</t>
+          <t>yoursalwaysemilyxx</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>analucia_hurtado_</t>
+          <t>ryan_meyers19</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>samantha_m_liu</t>
+          <t>lilybruff</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>gaudlap.thomas</t>
+          <t>maggie.smoker</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>user49292782715</t>
+          <t>shanbraniff</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>cgisumich</t>
+          <t>kamrynglamann</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ufw.chase</t>
+          <t>owendruzgal</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>troberts_9</t>
+          <t>joeshadows7</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>jschreiber923</t>
+          <t>norahannaa</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>sarnophs</t>
+          <t>sabreensheera</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>freshwaterscents</t>
+          <t>rahul.balakrishnan_</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>bvoto</t>
+          <t>ixii._.40</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>squale0921</t>
+          <t>_cjreilly</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>juliahuth9</t>
+          <t>__sameeksha24</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>tyler_aldave</t>
+          <t>gabrielleg88</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>amogh_madireddi</t>
+          <t>elawojewoda_</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>peter.vandentoorn</t>
+          <t>kaltratola</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>indrxw</t>
+          <t>a_connolly17</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>amanti_house</t>
+          <t>julietstarrett</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>mitchb_11</t>
+          <t>pranavjayaram_</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>arjun_abhyankar</t>
+          <t>arwenrevere</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>slackerpitt</t>
+          <t>joe_berryman7</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>h.wells2004</t>
+          <t>hopeisprettydope</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>abraham.mansuroglu</t>
+          <t>eliza.thorne</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>jose_gito</t>
+          <t>maggie__puetz</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>celinerinks</t>
+          <t>natalie_parent5</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>valerieseitz</t>
+          <t>smry1724</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>nina.gernhardt</t>
+          <t>draper.mackenzie</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>drew_asherman_</t>
+          <t>lydia.bezold</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>alex_istock</t>
+          <t>bluejaye125</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>darnellperkins_</t>
+          <t>annabellaholtmann</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>annika_juliusson</t>
+          <t>savannahchase1</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>michiganhockeyleague</t>
+          <t>brynn_curtis</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>tasha_bvv</t>
+          <t>stormnegele</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>zayden_boonstra</t>
+          <t>kleethechild</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ayush.chhabra_1</t>
+          <t>mir4cle12</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>alexandramital</t>
+          <t>ilana.zahavy</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>lucasmateof</t>
+          <t>denverkirkendall</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>sophia.danak</t>
+          <t>avaschoenn</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>brockshively</t>
+          <t>vickiwood1974</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ryan.oshaug</t>
+          <t>sarahkoopman_</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>sandrajane6041</t>
+          <t>kate.femali</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>alang0223</t>
+          <t>hector.g.mendez</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>felipe.garcia.7</t>
+          <t>ava24fox</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>tedsherman8</t>
+          <t>pistoy4</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>francis114646</t>
+          <t>miadankert</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>megann.brucee</t>
+          <t>davidsmazur</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>homeswithzara</t>
+          <t>arieshqanit</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>dagib_oi</t>
+          <t>don_korver</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>stephavitt</t>
+          <t>abby.coscarelli</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>samantha_chklovskii</t>
+          <t>sarahmklemmer</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>suegoblue</t>
+          <t>mira_fayad9</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>signe_joyce</t>
+          <t>jason_joa</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>gracyn.beck</t>
+          <t>stars.domi</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>clintblack0076546</t>
+          <t>jake_sachs_</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>jonahschloerb</t>
+          <t>laura.j.reichman</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>gabby.miller00</t>
+          <t>brookehowle</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>evan_m3315</t>
+          <t>sorryaarii</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>blackout_boston</t>
+          <t>emmaa.sophia</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>spencer11smith</t>
+          <t>sye.da6587_</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>blakenazar</t>
+          <t>hongru5480</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>maya_hervey</t>
+          <t>samirkurudi</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>moniqquex_</t>
+          <t>gracevasher</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>bradleycalkins_</t>
+          <t>melodybehzadi</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ddanielwang</t>
+          <t>karenrobin.h</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>siapatel16</t>
+          <t>chloe.mazzola</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>herrinbox4</t>
+          <t>laurettedaleo</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>sian.loughran</t>
+          <t>brookeccano</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>tshaf56</t>
+          <t>yamini_tewari</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>umich.youngdisciples</t>
+          <t>tuckerdunn5</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>charlottebrodhead</t>
+          <t>riyapatell06</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>destinys_a9</t>
+          <t>prachitilwankar</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>simranisbrown</t>
+          <t>rocco_bastoni</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>leakytip77</t>
+          <t>mia_damon09</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>maddiejoquico</t>
+          <t>this_shorty_2806</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>johnny_karas</t>
+          <t>e.den.l.r</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,10 +3608,1770 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>vbnmrev</t>
+          <t>aa.shi.a</t>
         </is>
       </c>
       <c r="B318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>gaddisgrant</t>
+        </is>
+      </c>
+      <c r="B319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>geonie360</t>
+        </is>
+      </c>
+      <c r="B320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>maya_dahanukar</t>
+        </is>
+      </c>
+      <c r="B321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>ph4r4h</t>
+        </is>
+      </c>
+      <c r="B322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>owen.liepman</t>
+        </is>
+      </c>
+      <c r="B323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>isaloyalverde</t>
+        </is>
+      </c>
+      <c r="B324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>bsinghm100</t>
+        </is>
+      </c>
+      <c r="B325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>elizabethbesch</t>
+        </is>
+      </c>
+      <c r="B326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>_natalie_stone</t>
+        </is>
+      </c>
+      <c r="B327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>j0rdanfeldman</t>
+        </is>
+      </c>
+      <c r="B328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>amitabhkunchey</t>
+        </is>
+      </c>
+      <c r="B329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>mtrip_0807</t>
+        </is>
+      </c>
+      <c r="B330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>jackstevens.4</t>
+        </is>
+      </c>
+      <c r="B331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>traci.k.m</t>
+        </is>
+      </c>
+      <c r="B332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>_lilapowell</t>
+        </is>
+      </c>
+      <c r="B333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>lauren_naeser</t>
+        </is>
+      </c>
+      <c r="B334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>margieleider44</t>
+        </is>
+      </c>
+      <c r="B335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>joe_ritchie_</t>
+        </is>
+      </c>
+      <c r="B336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>madeline__pace</t>
+        </is>
+      </c>
+      <c r="B337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>kunal.patel6</t>
+        </is>
+      </c>
+      <c r="B338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>lexii.s_11</t>
+        </is>
+      </c>
+      <c r="B339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>ceilimahoney</t>
+        </is>
+      </c>
+      <c r="B340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>kimberlii_i</t>
+        </is>
+      </c>
+      <c r="B341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>kathrynposhadlo</t>
+        </is>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>averyheppenstall</t>
+        </is>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>patriciapastare</t>
+        </is>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>annika_juliusson</t>
+        </is>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>valenciafeller</t>
+        </is>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>kimmat77</t>
+        </is>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>p_bpanda</t>
+        </is>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>bellagrace.dd</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>colleen.milo</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>michele.raphael</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>emrob6</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>izzyconfessori</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>amann_m19</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>alanb078</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>_isabella_cervantes_</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>marco_troka</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>pyt_josey_</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>fran.okundaye</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ckim0629</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>preissergirl</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>margothagerty</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>maddy.klein05</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>lindaaaa_03143</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>ayden_enriquez</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>andrewspilotro</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>sandmanz2023</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>ptucks19_</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>lindsey.michell</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ananya.bommineni</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>gian_deguzman04</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>xo.itsselle.xo</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>serafimdion</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>elise.mkilby23</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>henrygreenv</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>anvita_ag</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>umich_wiserp</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>hannahglefebvre</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>jacobp_m</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>michigan_2028</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>nene_723</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ian.sauer</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>phutyahase</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>hafizul.u</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ryan.oshaug</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>_izzyaguilera</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>antwuann_</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>jesuisjustyn</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ellareynolds05</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>victoria.eckman</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ria_tandon</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>nataliemrhone</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>aferreira_4</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>marykatelewan</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>johnfallon755</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>yearoftherat_2008</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>joseanmassucco</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>jon.hersk</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>sathvik_e</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>_sydneyfraser</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>kristin.armistead</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>oliviapreisser</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>carlyzimmerman_</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>mackenziemcrawford</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>vanessa_pelton94</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>daniel_rombaut_</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>abbylissau2</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>msgandyyy</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>jordanjcw</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>alexandrapzupnik</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>hmadecooking</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>lauren_hawker_</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>kishangill35</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>tawseef_rahman</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>_camila.truj</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>delaneydesmond_</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>ximeggonzalez</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>_keenwilliams</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>spallasmarco</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>lola_hawkinss</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>jeffreye403</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>_noahsiegel_</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>c.chrix</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>purnimaporayath</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>amari._.6</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>ian_yagoda</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>olgamontserrat</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>kate_michels31</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>akanjiiiiiiiiiii</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>cole_villar</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>em.shea20</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>sashavivek</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>ianward_612</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>_naomigordon_</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>emersoncrossan</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>cassidytaaaylor</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>annmarypallan</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>boiykuhavelostyour</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>tinaalbucker</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>avery_musgrave_</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>ellabiter</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>adhik715</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>aashkashahh_</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>jaden.ficklen</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>boyle_lanie</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>heatherannco</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>buenabellomo</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>marybeth_odonnell</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>careenbankston</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>kocourekkelle</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>its.prishakumar</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>__.hamza.05</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>soleil_bonifacio</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>_jamesweber</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>marissa.frazierr</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>siobhan.wheaton</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>huds_habs</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>anabelsherman</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>jordanfinkle</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>tessrockafellow</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>keirabravoo</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>jacob_darsch</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>serxnnn</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>natenateyee</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>ponderosabreeze</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>jallad.rommie</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>jadenakhtarzad</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>ashleygunderson_</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>ava_siegers</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>hannahcaseyy__</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>parkergutterman</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>dxnicuellar</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>reagankearney_</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>daynic</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>oscaken6</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>rghanta22</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>rina.dami</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>jadbahu_3</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>charlottelisker</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>david_angel111</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>nickmerendino_</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>mahd.ieh4937</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>eazyyy924</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>elisebuckler__</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>matansilverberg38</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>juliannacardella</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>paloma.aguilar1</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>_yukthagowda</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>biancadublinn</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>leluka_14915</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>mayaeakiva</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>briellee_g</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>ttu.2028</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>carlylayfield</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
         <v>0</v>
       </c>
     </row>
